--- a/src/main/resources/Excelfiles/QA Enviornment.xlsx
+++ b/src/main/resources/Excelfiles/QA Enviornment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="qa" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t>Key</t>
   </si>
@@ -50,6 +50,12 @@
   <si>
     <t>https://crewbidwebapp.firebaseapp.com/bidline</t>
   </si>
+  <si>
+    <t>Vofox2025@1</t>
+  </si>
+  <si>
+    <t>https://crewbidwebapp.firebaseapp.com/login</t>
+  </si>
 </sst>
 </file>
 
@@ -72,15 +78,15 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -534,10 +540,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
@@ -671,10 +677,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1212,8 +1218,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1250,7 +1256,7 @@
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1265,8 +1271,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1295,19 +1301,22 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>4</v>
+      <c r="B3" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="Vofox2025@1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/src/main/resources/Excelfiles/QA Enviornment.xlsx
+++ b/src/main/resources/Excelfiles/QA Enviornment.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Key</t>
   </si>
@@ -42,16 +42,13 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Vofox2024@5</t>
+    <t>Vofox2025@2$</t>
   </si>
   <si>
     <t>Url</t>
   </si>
   <si>
     <t>https://crewbidwebapp.firebaseapp.com/bidline</t>
-  </si>
-  <si>
-    <t>Vofox2025@1</t>
   </si>
   <si>
     <t>https://crewbidwebapp.firebaseapp.com/login</t>
@@ -1248,7 +1245,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1261,6 +1258,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" display="Vofox2025@2$"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1302,7 +1302,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1310,12 +1310,12 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="Vofox2025@1"/>
+    <hyperlink ref="B3" r:id="rId1" display="Vofox2025@2$" tooltip="mailto:Vofox2025@2$"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/src/main/resources/Excelfiles/QA Enviornment.xlsx
+++ b/src/main/resources/Excelfiles/QA Enviornment.xlsx
@@ -51,7 +51,7 @@
     <t>https://crewbidwebapp.firebaseapp.com/bidline</t>
   </si>
   <si>
-    <t>https://crewbidwebapp.firebaseapp.com/login</t>
+    <t>https://crewbid-automation.firebaseapp.com/login</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>

--- a/src/main/resources/Excelfiles/QA Enviornment.xlsx
+++ b/src/main/resources/Excelfiles/QA Enviornment.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
   <si>
     <t>Key</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Url</t>
-  </si>
-  <si>
-    <t>https://crewbidwebapp.firebaseapp.com/bidline</t>
   </si>
   <si>
     <t>https://crewbid-automation.firebaseapp.com/login</t>
@@ -1216,7 +1213,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1310,7 +1307,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Excelfiles/QA Enviornment.xlsx
+++ b/src/main/resources/Excelfiles/QA Enviornment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="qa" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <t>Password</t>
   </si>
   <si>
-    <t>Vofox2025@2$</t>
+    <t>Vofox2025@3$</t>
   </si>
   <si>
     <t>Url</t>
@@ -1212,8 +1212,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1242,7 +1242,7 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="Vofox2025@2$"/>
+    <hyperlink ref="B3" r:id="rId1" display="Vofox2025@3$" tooltip="mailto:Vofox2025@3$"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1268,8 +1268,8 @@
   <sheetPr/>
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
@@ -1312,7 +1312,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="Vofox2025@2$" tooltip="mailto:Vofox2025@2$"/>
+    <hyperlink ref="B3" r:id="rId1" display="Vofox2025@3$" tooltip="mailto:Vofox2025@3$"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
